--- a/Parts.xlsx
+++ b/Parts.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike\Documents\Senior Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike\Documents\GitHub\Senior-Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Parts" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
   <si>
     <t>Parts for Senior Design</t>
   </si>
@@ -106,13 +106,61 @@
     <t>Battery</t>
   </si>
   <si>
-    <t>Vin</t>
-  </si>
-  <si>
-    <t>I2C</t>
-  </si>
-  <si>
-    <t>Talk to bluetooth</t>
+    <t>Pins</t>
+  </si>
+  <si>
+    <t>DVCC</t>
+  </si>
+  <si>
+    <t>3.2V</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Connection</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Valve 1</t>
+  </si>
+  <si>
+    <t>Valve 2</t>
+  </si>
+  <si>
+    <t>Specs</t>
+  </si>
+  <si>
+    <t>1.0-2.0V</t>
+  </si>
+  <si>
+    <t>DVSS</t>
+  </si>
+  <si>
+    <t>Ground</t>
+  </si>
+  <si>
+    <t>Input Voltage</t>
+  </si>
+  <si>
+    <t>UCB0SCL</t>
+  </si>
+  <si>
+    <t>UCB0SDA</t>
+  </si>
+  <si>
+    <t>I2C Clock</t>
+  </si>
+  <si>
+    <t>I2C Data</t>
+  </si>
+  <si>
+    <t>10k Pullup Resistor</t>
+  </si>
+  <si>
+    <t>Pin Number</t>
   </si>
 </sst>
 </file>
@@ -186,6 +234,66 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Image result for msp430g2553 pinout"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5010150" y="200025"/>
+          <a:ext cx="10191750" cy="3648075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -453,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,39 +710,197 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:E3"/>
+  <dimension ref="B1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C14">
         <v>11</v>
       </c>
-      <c r="D3">
-        <v>3.3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>20</v>
+      </c>
+      <c r="D23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Parts.xlsx
+++ b/Parts.xlsx
@@ -9,12 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Parts" sheetId="1" r:id="rId1"/>
     <sheet name="Microcontroller" sheetId="2" r:id="rId2"/>
     <sheet name="Bluetooth" sheetId="3" r:id="rId3"/>
+    <sheet name="Valve 1" sheetId="4" r:id="rId4"/>
+    <sheet name="Valve 2" sheetId="5" r:id="rId5"/>
+    <sheet name="Battery" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
   <si>
     <t>Parts for Senior Design</t>
   </si>
@@ -161,13 +164,40 @@
   </si>
   <si>
     <t>Pin Number</t>
+  </si>
+  <si>
+    <t>Will be Master I2C device in system</t>
+  </si>
+  <si>
+    <t>Will be a slave I2C device</t>
+  </si>
+  <si>
+    <t>http://www.batteryspace.com/lifepo4-26650-rechargeable-cell-3-2v-3300-mah-19-8a-rate-10wh---un38-3-passed-ndgr.aspx?gclid=CL-ptvm77dACFYM2gQodrMIJYw</t>
+  </si>
+  <si>
+    <t>LiFePO4 26650 Rechargable Battery</t>
+  </si>
+  <si>
+    <t>3.2 V Output Voltage</t>
+  </si>
+  <si>
+    <t>3300 mAh Charge Capacity</t>
+  </si>
+  <si>
+    <t>10WH</t>
+  </si>
+  <si>
+    <t>10A</t>
+  </si>
+  <si>
+    <t>Price</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,6 +216,15 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -212,12 +251,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -562,7 +602,7 @@
   <dimension ref="C2:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,6 +735,9 @@
       <c r="C10" t="s">
         <v>25</v>
       </c>
+      <c r="J10" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -702,18 +745,19 @@
     <hyperlink ref="J6" r:id="rId2"/>
     <hyperlink ref="J7" r:id="rId3"/>
     <hyperlink ref="J8" r:id="rId4"/>
+    <hyperlink ref="J10" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F23"/>
+  <dimension ref="B1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,6 +942,11 @@
         <v>37</v>
       </c>
     </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -906,12 +955,109 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C2" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9">
+        <v>7.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Parts.xlsx
+++ b/Parts.xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Parts" sheetId="1" r:id="rId1"/>
     <sheet name="Microcontroller" sheetId="2" r:id="rId2"/>
     <sheet name="Bluetooth" sheetId="3" r:id="rId3"/>
-    <sheet name="Valve 1" sheetId="4" r:id="rId4"/>
-    <sheet name="Valve 2" sheetId="5" r:id="rId5"/>
-    <sheet name="Battery" sheetId="6" r:id="rId6"/>
+    <sheet name="Pressure Sensor" sheetId="7" r:id="rId4"/>
+    <sheet name="Valve 1" sheetId="4" r:id="rId5"/>
+    <sheet name="Valve 2" sheetId="5" r:id="rId6"/>
+    <sheet name="Battery" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
   <si>
     <t>Parts for Senior Design</t>
   </si>
@@ -191,6 +192,9 @@
   </si>
   <si>
     <t>Price</t>
+  </si>
+  <si>
+    <t>I2C Address</t>
   </si>
 </sst>
 </file>
@@ -602,7 +606,7 @@
   <dimension ref="C2:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,6 +739,9 @@
       <c r="C10" t="s">
         <v>25</v>
       </c>
+      <c r="I10">
+        <v>7.5</v>
+      </c>
       <c r="J10" s="1" t="s">
         <v>47</v>
       </c>
@@ -756,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -942,6 +949,11 @@
         <v>37</v>
       </c>
     </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+    </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>45</v>
@@ -955,14 +967,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C27"/>
+  <dimension ref="C26:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+    </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>46</v>
@@ -975,49 +995,65 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C27"/>
+  <dimension ref="C26:C27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C27"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>

--- a/Parts.xlsx
+++ b/Parts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Parts" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
   <si>
     <t>Parts for Senior Design</t>
   </si>
@@ -89,15 +89,6 @@
     <t>Pressure Sensor</t>
   </si>
   <si>
-    <t>TE</t>
-  </si>
-  <si>
-    <t>MS583702BA01-50</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/product-detail/en/te-connectivity-measurement-specialties/MS583702BA01-50/223-1778-2-ND/6221400</t>
-  </si>
-  <si>
     <t>https://peterpaul.com/valves/2-way-normally-closed</t>
   </si>
   <si>
@@ -195,6 +186,18 @@
   </si>
   <si>
     <t>I2C Address</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/honeywell-sensing-and-productivity-solutions/SSCDANN150PG2A5/480-5202-ND/2416089</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/honeywell-sensing-and-productivity-solutions/HSCSANN150PA2A5/480-5523-ND/2270189</t>
+  </si>
+  <si>
+    <t>Vented Gauge</t>
+  </si>
+  <si>
+    <t>Absolute</t>
   </si>
 </sst>
 </file>
@@ -606,7 +609,7 @@
   <dimension ref="C2:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,36 +703,23 @@
       <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>9.17</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="E7" s="2"/>
+      <c r="J7" s="1"/>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -737,25 +727,24 @@
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I10">
         <v>7.5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J5" r:id="rId1"/>
     <hyperlink ref="J6" r:id="rId2"/>
-    <hyperlink ref="J7" r:id="rId3"/>
-    <hyperlink ref="J8" r:id="rId4"/>
-    <hyperlink ref="J10" r:id="rId5"/>
+    <hyperlink ref="J8" r:id="rId3"/>
+    <hyperlink ref="J10" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -763,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,21 +770,21 @@
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
         <v>31</v>
-      </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
@@ -803,13 +792,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
@@ -847,13 +836,13 @@
         <v>8</v>
       </c>
       <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
         <v>29</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>32</v>
-      </c>
-      <c r="F11" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
@@ -861,13 +850,13 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
@@ -895,13 +884,13 @@
         <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
@@ -909,13 +898,13 @@
         <v>15</v>
       </c>
       <c r="D18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" t="s">
         <v>40</v>
-      </c>
-      <c r="E18" t="s">
-        <v>42</v>
-      </c>
-      <c r="F18" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
@@ -943,20 +932,20 @@
         <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E23" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -980,12 +969,12 @@
   <sheetData>
     <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -995,10 +984,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C26:C27"/>
+  <dimension ref="C4:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1006,17 +995,36 @@
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="4" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G5" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1061,32 +1069,32 @@
   <sheetData>
     <row r="2" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C2" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D9">
         <v>7.5</v>

--- a/Parts.xlsx
+++ b/Parts.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="82">
   <si>
     <t>Parts for Senior Design</t>
   </si>
@@ -188,23 +188,112 @@
     <t>I2C Address</t>
   </si>
   <si>
-    <t>http://www.digikey.com/product-detail/en/honeywell-sensing-and-productivity-solutions/SSCDANN150PG2A5/480-5202-ND/2416089</t>
-  </si>
-  <si>
     <t>http://www.digikey.com/product-detail/en/honeywell-sensing-and-productivity-solutions/HSCSANN150PA2A5/480-5523-ND/2270189</t>
   </si>
   <si>
-    <t>Vented Gauge</t>
-  </si>
-  <si>
     <t>Absolute</t>
+  </si>
+  <si>
+    <t>0x28</t>
+  </si>
+  <si>
+    <t>Possibly add 128</t>
+  </si>
+  <si>
+    <t>Honeywell Pressure Sensor</t>
+  </si>
+  <si>
+    <t>Operating PSI</t>
+  </si>
+  <si>
+    <t>Max PSI</t>
+  </si>
+  <si>
+    <t>4.75-5.25</t>
+  </si>
+  <si>
+    <t>Current Draw (A)</t>
+  </si>
+  <si>
+    <t>Vsupply (V)</t>
+  </si>
+  <si>
+    <t>Power (W)</t>
+  </si>
+  <si>
+    <r>
+      <t>Operating Temp (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>°C)</t>
+    </r>
+  </si>
+  <si>
+    <t>-20 to 80</t>
+  </si>
+  <si>
+    <t>Port Size (in)</t>
+  </si>
+  <si>
+    <t>Digikey Page</t>
+  </si>
+  <si>
+    <t>Datasheet</t>
+  </si>
+  <si>
+    <t>I2C Doc</t>
+  </si>
+  <si>
+    <t>https://sensing.honeywell.com/index.php?ci_id=45841</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>HSCSANN150PA2A5</t>
+  </si>
+  <si>
+    <t>Output Max</t>
+  </si>
+  <si>
+    <t>Output Min</t>
+  </si>
+  <si>
+    <t>Pressure Max</t>
+  </si>
+  <si>
+    <t>Pressure Min</t>
+  </si>
+  <si>
+    <t>0x3999</t>
+  </si>
+  <si>
+    <t>0x0666</t>
+  </si>
+  <si>
+    <t>https://sensing.honeywell.com/index.php?ci_id=144667</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>Use 1</t>
+  </si>
+  <si>
+    <t>Use 150</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,6 +325,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -258,13 +360,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -336,6 +451,239 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>275369</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>180594</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="590550" y="2466975"/>
+          <a:ext cx="6847619" cy="3047619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>37683</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>171186</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="5676900"/>
+          <a:ext cx="3333333" cy="2114286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>94814</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>9285</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4381500" y="5705475"/>
+          <a:ext cx="3485714" cy="1923810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76086</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152343</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8401050" y="5410200"/>
+          <a:ext cx="914286" cy="457143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>418223</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142773</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4467225" y="1419225"/>
+          <a:ext cx="7019048" cy="819048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>113870</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>66621</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8353425" y="4781550"/>
+          <a:ext cx="3438095" cy="428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -984,48 +1332,196 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:G27"/>
+  <dimension ref="B3:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E4" t="s">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="4">
+        <v>150</v>
+      </c>
+      <c r="G5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="4">
+        <v>250</v>
+      </c>
+      <c r="G6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="4">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="4">
+        <v>3.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="4">
+        <f>C7*C8</f>
+        <v>1.7500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="7">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E5" t="s">
+      <c r="D13" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>43</v>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="M33" t="s">
+        <v>72</v>
+      </c>
+      <c r="N33">
+        <v>14745</v>
+      </c>
+      <c r="O33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="M34" t="s">
+        <v>73</v>
+      </c>
+      <c r="N34">
+        <v>1638</v>
+      </c>
+      <c r="O34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="M35" t="s">
+        <v>74</v>
+      </c>
+      <c r="N35">
+        <v>145</v>
+      </c>
+      <c r="O35" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="M36" t="s">
+        <v>75</v>
+      </c>
+      <c r="N36">
+        <v>0.87</v>
+      </c>
+      <c r="O36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G5" r:id="rId1"/>
+    <hyperlink ref="H4" r:id="rId1"/>
+    <hyperlink ref="H6" r:id="rId2"/>
+    <hyperlink ref="H5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/Parts.xlsx
+++ b/Parts.xlsx
@@ -9,16 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Parts" sheetId="1" r:id="rId1"/>
     <sheet name="Microcontroller" sheetId="2" r:id="rId2"/>
-    <sheet name="Bluetooth" sheetId="3" r:id="rId3"/>
+    <sheet name="Boost Converter" sheetId="8" r:id="rId3"/>
     <sheet name="Pressure Sensor" sheetId="7" r:id="rId4"/>
-    <sheet name="Valve 1" sheetId="4" r:id="rId5"/>
-    <sheet name="Valve 2" sheetId="5" r:id="rId6"/>
-    <sheet name="Battery" sheetId="6" r:id="rId7"/>
+    <sheet name="Bluetooth" sheetId="3" r:id="rId5"/>
+    <sheet name="Battery" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="95">
   <si>
     <t>Parts for Senior Design</t>
   </si>
@@ -80,21 +79,12 @@
     <t>http://www.ti.com/lsds/ti/wireless-connectivity/bluetooth-low-energy/simplelink-cc2640/overview.page</t>
   </si>
   <si>
-    <t>Valve</t>
-  </si>
-  <si>
     <t>Cost</t>
   </si>
   <si>
     <t>Pressure Sensor</t>
   </si>
   <si>
-    <t>https://peterpaul.com/valves/2-way-normally-closed</t>
-  </si>
-  <si>
-    <t>Peter Paul</t>
-  </si>
-  <si>
     <t>Boost Converter</t>
   </si>
   <si>
@@ -195,9 +185,6 @@
   </si>
   <si>
     <t>0x28</t>
-  </si>
-  <si>
-    <t>Possibly add 128</t>
   </si>
   <si>
     <t>Honeywell Pressure Sensor</t>
@@ -287,6 +274,57 @@
   </si>
   <si>
     <t>Use 150</t>
+  </si>
+  <si>
+    <t>0x01</t>
+  </si>
+  <si>
+    <t>0x96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.digikey.com/product-detail/en/texas-instruments/LMR62421XMFE-NOPB/LMR62421XMFE-NOPBCT-ND/2777085 </t>
+  </si>
+  <si>
+    <t>LMR62421</t>
+  </si>
+  <si>
+    <t>Output Voltage</t>
+  </si>
+  <si>
+    <t>Inductor Calculations</t>
+  </si>
+  <si>
+    <t>Duty Cycle</t>
+  </si>
+  <si>
+    <t>Inductor</t>
+  </si>
+  <si>
+    <t>47uH</t>
+  </si>
+  <si>
+    <t>Fsw</t>
+  </si>
+  <si>
+    <t>1600kHz</t>
+  </si>
+  <si>
+    <t>Ts</t>
+  </si>
+  <si>
+    <t>Ripple Current</t>
+  </si>
+  <si>
+    <t>17.87mA</t>
+  </si>
+  <si>
+    <t>Input Capacitor</t>
+  </si>
+  <si>
+    <t>Inductor Choice</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/wurth-electronics-inc/744771147/732-1214-1-ND/1639275</t>
   </si>
 </sst>
 </file>
@@ -360,7 +398,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -370,9 +408,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -380,6 +415,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -459,6 +498,87 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>199902</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5791200" y="571500"/>
+          <a:ext cx="980952" cy="409524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>399902</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5953125" y="1809750"/>
+          <a:ext cx="1180952" cy="523810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -957,7 +1077,7 @@
   <dimension ref="C2:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,7 +1115,7 @@
         <v>8</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J4" t="s">
         <v>5</v>
@@ -1049,47 +1169,51 @@
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" s="2"/>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="J8" s="1"/>
     </row>
     <row r="9" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
       </c>
+      <c r="E9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>2.36</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I10">
         <v>7.5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J5" r:id="rId1"/>
     <hyperlink ref="J6" r:id="rId2"/>
-    <hyperlink ref="J8" r:id="rId3"/>
-    <hyperlink ref="J10" r:id="rId4"/>
+    <hyperlink ref="J10" r:id="rId3"/>
+    <hyperlink ref="J9" r:id="rId4" display="http://www.digikey.com/product-detail/en/texas-instruments/LMR62421XMFE-NOPB/LMR62421XMFE-NOPBCT-ND/2777085"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
@@ -1118,21 +1242,21 @@
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
         <v>28</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
@@ -1140,13 +1264,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
@@ -1184,13 +1308,13 @@
         <v>8</v>
       </c>
       <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
         <v>26</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>29</v>
-      </c>
-      <c r="F11" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
@@ -1198,13 +1322,13 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
@@ -1232,13 +1356,13 @@
         <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
@@ -1246,13 +1370,13 @@
         <v>15</v>
       </c>
       <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" t="s">
         <v>37</v>
-      </c>
-      <c r="E18" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
@@ -1280,20 +1404,20 @@
         <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E23" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1304,38 +1428,142 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C26:C27"/>
+  <dimension ref="B2:N19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>43</v>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L3" t="s">
+        <v>87</v>
+      </c>
+      <c r="M3">
+        <f>1600*10^3</f>
+        <v>1600000</v>
+      </c>
+      <c r="N3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>84</v>
+      </c>
+      <c r="L4" t="s">
+        <v>89</v>
+      </c>
+      <c r="M4">
+        <f>1/M3</f>
+        <v>6.2500000000000005E-7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I7">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9">
+        <f>47*10^-6</f>
+        <v>4.6999999999999997E-5</v>
+      </c>
+      <c r="J9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I14">
+        <f>17.87*10^-3</f>
+        <v>1.787E-2</v>
+      </c>
+      <c r="J14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" s="9">
+        <v>0.12770000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H19" s="3" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:O48"/>
+  <dimension ref="B3:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1347,71 +1575,71 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="8" t="s">
-        <v>71</v>
+      <c r="B3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C5" s="4">
         <v>150</v>
       </c>
       <c r="G5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C6" s="4">
         <v>250</v>
       </c>
       <c r="G6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C7" s="4">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C8" s="4">
         <v>3.5000000000000001E-3</v>
@@ -1419,7 +1647,7 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C9" s="4">
         <f>C7*C8</f>
@@ -1428,15 +1656,15 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C11" s="4">
         <v>0.19</v>
@@ -1444,70 +1672,73 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="7">
+        <v>66</v>
+      </c>
+      <c r="C12" s="6">
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="M33" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="N33">
         <v>14745</v>
       </c>
       <c r="O33" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="M34" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="N34">
         <v>1638</v>
       </c>
       <c r="O34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="M35" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="N35">
         <v>145</v>
       </c>
       <c r="O35" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="P35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="M36" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="N36">
         <v>0.87</v>
       </c>
       <c r="O36" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="P36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1527,33 +1758,33 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C26:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:D9"/>
   <sheetViews>
@@ -1565,32 +1796,32 @@
   <sheetData>
     <row r="2" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C2" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D9">
         <v>7.5</v>

--- a/Parts.xlsx
+++ b/Parts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Parts" sheetId="1" r:id="rId1"/>
@@ -415,10 +415,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1430,7 +1430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -1533,7 +1533,7 @@
       <c r="H15" t="s">
         <v>90</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="8">
         <v>0.12770000000000001</v>
       </c>
     </row>
@@ -1562,8 +1562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:P48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1575,11 +1575,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
       <c r="E3" s="7" t="s">
         <v>67</v>
       </c>

--- a/Parts.xlsx
+++ b/Parts.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="96">
   <si>
     <t>Parts for Senior Design</t>
   </si>
@@ -325,6 +325,9 @@
   </si>
   <si>
     <t>http://www.digikey.com/product-detail/en/wurth-electronics-inc/744771147/732-1214-1-ND/1639275</t>
+  </si>
+  <si>
+    <t>Above Atmospheric</t>
   </si>
 </sst>
 </file>
@@ -1560,10 +1563,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:P48"/>
+  <dimension ref="B3:U48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1574,7 +1577,7 @@
     <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
         <v>52</v>
       </c>
@@ -1584,7 +1587,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>25</v>
       </c>
@@ -1598,7 +1601,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>53</v>
       </c>
@@ -1612,7 +1615,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>54</v>
       </c>
@@ -1626,7 +1629,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>57</v>
       </c>
@@ -1637,7 +1640,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>56</v>
       </c>
@@ -1645,7 +1648,7 @@
         <v>3.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>58</v>
       </c>
@@ -1654,7 +1657,7 @@
         <v>1.7500000000000002E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>59</v>
       </c>
@@ -1662,7 +1665,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>61</v>
       </c>
@@ -1670,7 +1673,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>66</v>
       </c>
@@ -1678,7 +1681,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>48</v>
       </c>
@@ -1686,7 +1689,23 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="R16">
+        <f>1/(1000000)</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="17" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q17">
+        <f>500000</f>
+        <v>500000</v>
+      </c>
+      <c r="R17">
+        <f>R16*Q17</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
       <c r="M33" t="s">
         <v>68</v>
       </c>
@@ -1696,8 +1715,16 @@
       <c r="O33" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="R33">
+        <f>1645-1635</f>
+        <v>10</v>
+      </c>
+      <c r="T33">
+        <f>R33*R34</f>
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
       <c r="M34" t="s">
         <v>69</v>
       </c>
@@ -1707,8 +1734,16 @@
       <c r="O34" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="R34">
+        <f>150-1</f>
+        <v>149</v>
+      </c>
+      <c r="T34">
+        <f>T33/R35</f>
+        <v>0.11367971313038834</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
       <c r="M35" t="s">
         <v>70</v>
       </c>
@@ -1721,8 +1756,19 @@
       <c r="P35" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="R35">
+        <f>14745-1638</f>
+        <v>13107</v>
+      </c>
+      <c r="T35">
+        <f>T34+1</f>
+        <v>1.1136797131303884</v>
+      </c>
+      <c r="U35" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
       <c r="M36" t="s">
         <v>71</v>
       </c>
@@ -1736,7 +1782,40 @@
         <v>78</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="R37">
+        <f>1673-1635</f>
+        <v>38</v>
+      </c>
+      <c r="T37">
+        <f>R37*R38</f>
+        <v>5662</v>
+      </c>
+    </row>
+    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="R38">
+        <f>150-1</f>
+        <v>149</v>
+      </c>
+      <c r="T38">
+        <f>T37/R39</f>
+        <v>0.43198290989547572</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="R39">
+        <f>14745-1638</f>
+        <v>13107</v>
+      </c>
+      <c r="T39">
+        <f>T38+1</f>
+        <v>1.4319829098954757</v>
+      </c>
+      <c r="U39" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>75</v>
       </c>

--- a/Parts.xlsx
+++ b/Parts.xlsx
@@ -1565,8 +1565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:U48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1577,7 +1577,7 @@
     <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
         <v>52</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>25</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>53</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>54</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>57</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>56</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>3.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>58</v>
       </c>
@@ -1657,23 +1657,31 @@
         <v>1.7500000000000002E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>59</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="T10">
+        <f>1.5688/12</f>
+        <v>0.13073333333333334</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>61</v>
       </c>
       <c r="C11" s="4">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="T11">
+        <f>M18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>66</v>
       </c>
@@ -1681,7 +1689,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>48</v>
       </c>
@@ -1689,13 +1697,13 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="R16">
         <f>1/(1000000)</f>
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="17" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="13:18" x14ac:dyDescent="0.25">
       <c r="Q17">
         <f>500000</f>
         <v>500000</v>
@@ -1703,6 +1711,11 @@
       <c r="R17">
         <f>R16*Q17</f>
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="13:18" x14ac:dyDescent="0.25">
+      <c r="M20">
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.25">

--- a/Parts.xlsx
+++ b/Parts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Parts" sheetId="1" r:id="rId1"/>
@@ -1565,8 +1565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:U48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1852,7 +1852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C26:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
